--- a/p3_sec_outcomes_kyle.xlsx
+++ b/p3_sec_outcomes_kyle.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="p3_sec_outcomes_kyle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -705,8 +705,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-50710656"/>
-        <c:axId val="-50715552"/>
+        <c:axId val="-543256832"/>
+        <c:axId val="-543257376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -966,11 +966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-50710656"/>
-        <c:axId val="-50715552"/>
+        <c:axId val="-543256832"/>
+        <c:axId val="-543257376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-50710656"/>
+        <c:axId val="-543256832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50715552"/>
+        <c:crossAx val="-543257376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-50715552"/>
+        <c:axId val="-543257376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1073,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50710656"/>
+        <c:crossAx val="-543256832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,8 +1180,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-1918018016"/>
-        <c:axId val="-1918007680"/>
+        <c:axId val="-543255744"/>
+        <c:axId val="-543266080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1441,11 +1441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1918018016"/>
-        <c:axId val="-1918007680"/>
+        <c:axId val="-543255744"/>
+        <c:axId val="-543266080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1918018016"/>
+        <c:axId val="-543255744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918007680"/>
+        <c:crossAx val="-543266080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1918007680"/>
+        <c:axId val="-543266080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -1549,7 +1549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918018016"/>
+        <c:crossAx val="-543255744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1657,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-1918015296"/>
-        <c:axId val="-1918009312"/>
+        <c:axId val="-543264992"/>
+        <c:axId val="-543264448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1918015296"/>
-        <c:axId val="-1918009312"/>
+        <c:axId val="-543264992"/>
+        <c:axId val="-543264448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1918015296"/>
+        <c:axId val="-543264992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918009312"/>
+        <c:crossAx val="-543264448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1973,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1918009312"/>
+        <c:axId val="-543264448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -2026,7 +2026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918015296"/>
+        <c:crossAx val="-543264992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -5310,15 +5310,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5490,8 +5490,12 @@
       <c r="Q4">
         <v>2</v>
       </c>
+      <c r="S4">
+        <f>AVERAGE(O2:O5)+AVERAGE(O15:O25)</f>
+        <v>22.295454545454547</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5534,8 +5538,16 @@
       <c r="Q5">
         <v>3</v>
       </c>
+      <c r="S5">
+        <f>AVERAGE(O6:O14)+AVERAGE(O26:O34)</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="T5">
+        <f>S5-S4</f>
+        <v>-0.9621212121212146</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5588,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5676,7 +5688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5720,7 +5732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5764,7 +5776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5808,7 +5820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5852,7 +5864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5896,7 +5908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5940,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -6854,7 +6866,8 @@
       <c r="O36" t="s">
         <v>24</v>
       </c>
-      <c r="Q36">
+      <c r="P36">
+        <f>AVERAGE(O2:O5,O15:O25)</f>
         <v>10.4</v>
       </c>
     </row>
@@ -6874,8 +6887,9 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="Q37">
-        <v>10.66666667</v>
+      <c r="P37">
+        <f>AVERAGE(O26:O34,O6:O14)</f>
+        <v>10.666666666666666</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -6894,7 +6908,7 @@
       <c r="O38" t="s">
         <v>26</v>
       </c>
-      <c r="Q38">
+      <c r="P38">
         <v>0.97499999999999998</v>
       </c>
     </row>

--- a/p3_sec_outcomes_kyle.xlsx
+++ b/p3_sec_outcomes_kyle.xlsx
@@ -705,8 +705,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-543256832"/>
-        <c:axId val="-543257376"/>
+        <c:axId val="1480057312"/>
+        <c:axId val="1480066016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -966,11 +966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-543256832"/>
-        <c:axId val="-543257376"/>
+        <c:axId val="1480057312"/>
+        <c:axId val="1480066016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-543256832"/>
+        <c:axId val="1480057312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543257376"/>
+        <c:crossAx val="1480066016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-543257376"/>
+        <c:axId val="1480066016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1073,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543256832"/>
+        <c:crossAx val="1480057312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,8 +1180,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-543255744"/>
-        <c:axId val="-543266080"/>
+        <c:axId val="1480068736"/>
+        <c:axId val="1480056224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1441,11 +1441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-543255744"/>
-        <c:axId val="-543266080"/>
+        <c:axId val="1480068736"/>
+        <c:axId val="1480056224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-543255744"/>
+        <c:axId val="1480068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543266080"/>
+        <c:crossAx val="1480056224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-543266080"/>
+        <c:axId val="1480056224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -1549,7 +1549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543255744"/>
+        <c:crossAx val="1480068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1657,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-543264992"/>
-        <c:axId val="-543264448"/>
+        <c:axId val="1480066560"/>
+        <c:axId val="1480067648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-543264992"/>
-        <c:axId val="-543264448"/>
+        <c:axId val="1480066560"/>
+        <c:axId val="1480067648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-543264992"/>
+        <c:axId val="1480066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543264448"/>
+        <c:crossAx val="1480067648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1973,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-543264448"/>
+        <c:axId val="1480067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -2026,7 +2026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-543264992"/>
+        <c:crossAx val="1480066560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -5313,7 +5313,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -6268,8 +6268,12 @@
       <c r="Q21">
         <v>19</v>
       </c>
+      <c r="S21">
+        <f>AVERAGE(C2:C5)+AVERAGE(C15:C25)</f>
+        <v>113.11363636363637</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6312,8 +6316,12 @@
       <c r="Q22">
         <v>20</v>
       </c>
+      <c r="S22">
+        <f>AVERAGE(C6:C14)+AVERAGE(C26:C34)</f>
+        <v>129.77777777777777</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6356,8 +6364,16 @@
       <c r="Q23">
         <v>21</v>
       </c>
+      <c r="S23">
+        <f>S22-S21</f>
+        <v>16.664141414141397</v>
+      </c>
+      <c r="T23">
+        <f>_xlfn.STDEV.P(C2:C5, C15:C25)</f>
+        <v>25.242468623774144</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6400,8 +6416,16 @@
       <c r="Q24">
         <v>22</v>
       </c>
+      <c r="S24">
+        <f>S23/T26</f>
+        <v>0.85916351711323047</v>
+      </c>
+      <c r="T24">
+        <f>_xlfn.STDEV.P(C6:C14, C26:C34)</f>
+        <v>10.733586378429619</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6444,8 +6468,12 @@
       <c r="Q25">
         <v>23</v>
       </c>
+      <c r="T25">
+        <f>(POWER(T23, 2) + POWER(T24, 2))/2</f>
+        <v>376.19604938271596</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6497,8 +6525,12 @@
       <c r="Q26">
         <v>24</v>
       </c>
+      <c r="T26">
+        <f>SQRT(T25)</f>
+        <v>19.395774008343054</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6542,7 +6574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -6586,7 +6618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6674,7 +6706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
